--- a/Data 0819/Sorted data/Drone 2/0819_drone_2_25m.xlsx
+++ b/Data 0819/Sorted data/Drone 2/0819_drone_2_25m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/fnl18001_student_mdu_se/Documents/Robotics_program_university/Ongoing_courses/DVA502/Data_0819/Drone 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28007271-25DB-4ED6-8704-155F68F3E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{28007271-25DB-4ED6-8704-155F68F3E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA018C1-6CD4-41A1-9D86-95B7CEA1094B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{95F7A11D-A709-4F57-9C91-8034110EBB18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{95F7A11D-A709-4F57-9C91-8034110EBB18}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="18">
   <si>
     <t>tx_ms:</t>
   </si>
@@ -72,13 +72,34 @@
   <si>
     <t>Receiver ID</t>
   </si>
+  <si>
+    <t>Transmission duration</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Packet loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7774,7 +7795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBACFD2-D8E9-41FA-B691-8D83587A83B5}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
@@ -12326,12 +12347,4186 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2743ECA4-6DFF-424E-A741-119488B4EDA3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.39044738425925929</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1755588134909</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1755588134654</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <f>ABS(K2-I2)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.39045895833333338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1755588135909</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1755588135654</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">ABS(K3-I3)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.39047053240740742</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1755588136909</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1755588136654</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.39048210648148152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1755588137909</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1755588137654</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.39049368055555556</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1755588138909</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1755588138654</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.39050532407407412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1755588139908</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1755588139660</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.39051682870370374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1755588140909</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1755588140654</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.39052840277777778</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1755588141909</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1755588141654</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.39053997685185188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1755588142909</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1755588142654</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.39055155092592597</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1755588143909</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1755588143654</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.39056315972222222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1755588144909</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1755588144657</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.39057469907407411</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1755588145909</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1755588145654</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.3905862731481482</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1755588146909</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1755588146654</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.39059784722222224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1755588147909</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1755588147654</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.39060942129629633</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1755588148909</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1755588148654</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.39062099537037037</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1755588149909</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1755588149654</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.3906325810185185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1755588150909</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1755588150654</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.39064414351851856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1755588151909</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1755588151654</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.39065572916666663</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1755588152909</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1755588152655</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.39066730324074073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1755588153909</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1755588153654</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.39067886574074079</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1755588154909</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1755588154654</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.39069043981481483</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1755588155909</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1755588155654</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.39071358796296302</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1755588157909</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1755588157654</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.39072516203703705</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1755588158909</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1755588158654</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.39073673611111115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1755588159909</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1755588159654</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.39074831018518519</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1755588160909</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1755588160654</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.39075989583333332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1755588161909</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1755588161655</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.39078303240740742</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1755588163909</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1755588163654</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.39079460648148151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1755588164909</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1755588164654</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.3908061805555556</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1755588165909</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1755588165654</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.39081776620370368</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1755588166909</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1755588166654</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.39082932870370374</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1755588167909</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1755588167654</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.39084091435185186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1755588168909</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1755588168654</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.39085247685185187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1755588169909</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1755588169654</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.390875625</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1755588171908</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1755588171654</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.3908871990740741</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1755588172908</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1755588172654</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.39089877314814819</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1755588173909</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1755588173654</v>
+      </c>
+      <c r="L38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.39091035879629626</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1755588174909</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1755588174655</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.39092193287037036</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1755588175909</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1755588175655</v>
+      </c>
+      <c r="L40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.39093350694444445</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>65</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1755588176909</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1755588176655</v>
+      </c>
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.39094506944444446</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1755588177909</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1755588177654</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.39095665509259259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1755588178909</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1755588178655</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.39096822916666668</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1755588179909</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1755588179655</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.39097980324074072</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1755588180909</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1755588180655</v>
+      </c>
+      <c r="L45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.39099137731481481</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1755588181909</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1755588181655</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.39100295138888885</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1755588182909</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1755588182655</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.39101452546296295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1755588183909</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1755588183655</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.39102609953703704</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1755588184909</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1755588184655</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.39103767361111108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1755588185909</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1755588185655</v>
+      </c>
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.39104923611111114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1755588186908</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1755588186654</v>
+      </c>
+      <c r="L51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.39106082175925927</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1755588187909</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1755588187655</v>
+      </c>
+      <c r="L52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.39107239583333331</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1755588188909</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1755588188655</v>
+      </c>
+      <c r="L53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" t="s">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.3910839699074074</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1755588189909</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1755588189655</v>
+      </c>
+      <c r="L54" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.39109554398148144</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1755588190909</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1755588190655</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" t="s">
+        <v>7</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.39110711805555554</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1755588191909</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1755588191655</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.39111869212962963</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1755588192909</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1755588192655</v>
+      </c>
+      <c r="L57" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" t="s">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.39113026620370367</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1755588193909</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1755588193655</v>
+      </c>
+      <c r="L58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.39114184027777776</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1755588194908</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1755588194655</v>
+      </c>
+      <c r="L59" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" t="s">
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.39115341435185186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1755588195909</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1755588195655</v>
+      </c>
+      <c r="L60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.3911649884259259</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1755588196909</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1755588196655</v>
+      </c>
+      <c r="L61" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.39117656249999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1755588197909</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1755588197655</v>
+      </c>
+      <c r="L62" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" t="s">
+        <v>7</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.39118813657407409</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1755588198908</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1755588198655</v>
+      </c>
+      <c r="L63" t="s">
+        <v>10</v>
+      </c>
+      <c r="M63" t="s">
+        <v>7</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.3911997337962963</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1755588199909</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1755588199657</v>
+      </c>
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64" t="s">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.39121128472222222</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1755588200909</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1755588200655</v>
+      </c>
+      <c r="L65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" t="s">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.39122285879629626</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1755588201909</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1755588201655</v>
+      </c>
+      <c r="L66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" t="s">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.39123443287037035</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1755588202908</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1755588202655</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N92" si="1">ABS(K67-I67)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.39124606481481483</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1755588203909</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1755588203660</v>
+      </c>
+      <c r="L68" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" t="s">
+        <v>7</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.39126915509259258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>94</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1755588205909</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1755588205655</v>
+      </c>
+      <c r="L69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M69" t="s">
+        <v>7</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.39128072916666667</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>95</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1755588206908</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1755588206655</v>
+      </c>
+      <c r="L70" t="s">
+        <v>10</v>
+      </c>
+      <c r="M70" t="s">
+        <v>7</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.39129230324074071</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>96</v>
+      </c>
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1755588207909</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1755588207655</v>
+      </c>
+      <c r="L71" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" t="s">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.39130390046296293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>97</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1755588208909</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1755588208657</v>
+      </c>
+      <c r="L72" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.3913154513888889</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>98</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1755588209909</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1755588209655</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.39132702546296294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>99</v>
+      </c>
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1755588210909</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1755588210655</v>
+      </c>
+      <c r="L74" t="s">
+        <v>10</v>
+      </c>
+      <c r="M74" t="s">
+        <v>7</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.39133859953703704</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1755588211909</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1755588211655</v>
+      </c>
+      <c r="L75" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" t="s">
+        <v>7</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.39135017361111107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>101</v>
+      </c>
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1755588212909</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1755588212655</v>
+      </c>
+      <c r="L76" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.39137332175925926</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1755588214909</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1755588214655</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.3913964699074074</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>105</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1755588216909</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1755588216655</v>
+      </c>
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+      <c r="M78" t="s">
+        <v>7</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.39140804398148149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1755588217908</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1755588217655</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.39141961805555553</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>107</v>
+      </c>
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1755588218909</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1755588218655</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" t="s">
+        <v>7</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.39144276620370366</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>109</v>
+      </c>
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1755588220908</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1755588220655</v>
+      </c>
+      <c r="L81" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" t="s">
+        <v>7</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.3914543518518519</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>110</v>
+      </c>
+      <c r="H82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1755588221909</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1755588221656</v>
+      </c>
+      <c r="L82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M82" t="s">
+        <v>7</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.39146592592592594</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1755588222909</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1755588222656</v>
+      </c>
+      <c r="L83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" t="s">
+        <v>7</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.39147748842592589</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>112</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1755588223909</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1755588223655</v>
+      </c>
+      <c r="L84" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" t="s">
+        <v>7</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.39148906249999998</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>113</v>
+      </c>
+      <c r="H85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1755588224908</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1755588224655</v>
+      </c>
+      <c r="L85" t="s">
+        <v>10</v>
+      </c>
+      <c r="M85" t="s">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.39150064814814817</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>114</v>
+      </c>
+      <c r="H86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1755588225909</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1755588225656</v>
+      </c>
+      <c r="L86" t="s">
+        <v>10</v>
+      </c>
+      <c r="M86" t="s">
+        <v>7</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.39151221064814812</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>115</v>
+      </c>
+      <c r="H87" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1755588226909</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1755588226655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" t="s">
+        <v>7</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.3915237962962963</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>116</v>
+      </c>
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1755588227909</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1755588227656</v>
+      </c>
+      <c r="L88" t="s">
+        <v>10</v>
+      </c>
+      <c r="M88" t="s">
+        <v>7</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.39153537037037039</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>117</v>
+      </c>
+      <c r="H89" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1755588228909</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1755588228655</v>
+      </c>
+      <c r="L89" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" t="s">
+        <v>7</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.39154693287037035</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90">
+        <v>118</v>
+      </c>
+      <c r="H90" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1755588229908</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1755588229655</v>
+      </c>
+      <c r="L90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M90" t="s">
+        <v>7</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.39155851851851853</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>119</v>
+      </c>
+      <c r="H91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1755588230909</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1755588230656</v>
+      </c>
+      <c r="L91" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" t="s">
+        <v>7</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.39157009259259262</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>120</v>
+      </c>
+      <c r="H92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1755588231909</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1755588231656</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M94" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94">
+        <f>AVERAGE(N2:N92)</f>
+        <v>254.01098901098902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95">
+        <f>MEDIAN(N2:N92)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96">
+        <f>MAX(N2:N92)-MIN(N2:N92)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M97" t="s">
+        <v>15</v>
+      </c>
+      <c r="N97">
+        <f>_xlfn.VAR.P(N2:N92)</f>
+        <v>1.3075715493297895</v>
+      </c>
+    </row>
+    <row r="98" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M98" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98">
+        <f>_xlfn.STDEV.P(N2:N92)</f>
+        <v>1.1434909485124005</v>
+      </c>
+    </row>
+    <row r="99" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M99" t="s">
+        <v>17</v>
+      </c>
+      <c r="N99">
+        <f>100-((91/120)*100)</f>
+        <v>24.166666666666671</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>